--- a/基礎言語総合課題/テスト計画書_括弧チェッカー.xlsx
+++ b/基礎言語総合課題/テスト計画書_括弧チェッカー.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="9465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="9465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1115,6 +1115,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1718,49 +1719,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1993,7 +1994,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3072,8 +3073,8 @@
       <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
     </row>
@@ -3092,7 +3093,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -3857,7 +3858,7 @@
       <c r="F17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="52" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3967,7 +3968,7 @@
   </sheetPr>
   <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3978,272 +3979,272 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="60"/>
     </row>
     <row r="9" spans="2:3" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="59"/>
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="59"/>
     </row>
     <row r="13" spans="2:3" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" spans="2:3" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="59"/>
     </row>
     <row r="20" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="59"/>
     </row>
     <row r="21" spans="2:3" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="59"/>
     </row>
     <row r="24" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="59"/>
     </row>
     <row r="25" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="59"/>
     </row>
     <row r="28" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="59"/>
     </row>
     <row r="31" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="59"/>
     </row>
     <row r="34" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="59"/>
     </row>
     <row r="37" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="59"/>
     </row>
     <row r="40" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="63"/>
     </row>
     <row r="41" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="59"/>
     </row>
     <row r="44" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="60"/>
+      <c r="C44" s="63"/>
     </row>
     <row r="45" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="49" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="52"/>
+      <c r="C47" s="59"/>
     </row>
     <row r="48" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="60"/>
+      <c r="C48" s="63"/>
     </row>
     <row r="49" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4266,12 +4267,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基礎言語総合課題/テスト計画書_括弧チェッカー.xlsx
+++ b/基礎言語総合課題/テスト計画書_括弧チェッカー.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="9465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="8880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1752,16 +1752,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3968,7 +3968,7 @@
   </sheetPr>
   <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3979,10 +3979,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="59" t="s">
@@ -4023,10 +4023,10 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="62"/>
     </row>
     <row r="9" spans="2:3" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="51" t="s">
@@ -4044,7 +4044,7 @@
       <c r="C11" s="59"/>
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="59"/>
@@ -4065,7 +4065,7 @@
       <c r="C15" s="59"/>
     </row>
     <row r="16" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="59"/>
@@ -4086,7 +4086,7 @@
       <c r="C19" s="59"/>
     </row>
     <row r="20" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="62" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="59"/>
@@ -4121,10 +4121,10 @@
       </c>
     </row>
     <row r="26" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="63"/>
     </row>
     <row r="27" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="59" t="s">
@@ -4193,10 +4193,10 @@
       <c r="C39" s="59"/>
     </row>
     <row r="40" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="61"/>
     </row>
     <row r="41" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="49" t="s">
@@ -4214,10 +4214,10 @@
       <c r="C43" s="59"/>
     </row>
     <row r="44" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="61"/>
     </row>
     <row r="45" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="49" t="s">
@@ -4235,10 +4235,10 @@
       <c r="C47" s="59"/>
     </row>
     <row r="48" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="63"/>
+      <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="49" t="s">
@@ -4251,6 +4251,17 @@
     <row r="50" spans="2:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B44:C44"/>
@@ -4262,17 +4273,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基礎言語総合課題/テスト計画書_括弧チェッカー.xlsx
+++ b/基礎言語総合課題/テスト計画書_括弧チェッカー.xlsx
@@ -153,23 +153,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>age</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>改訂内容</t>
     <rPh sb="0" eb="2">
       <t>カイテイ</t>
@@ -193,36 +176,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>版</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1081,6 +1034,17 @@
   <si>
     <t>ブランク、タブを入力しても正しく読み込まれることを確認する。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Page</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.0版</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1090,7 +1054,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,13 +1090,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1567,11 +1524,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1719,13 +1676,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="4" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1737,6 +1694,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1749,16 +1709,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1881,7 +1841,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>テスト報告書</a:t>
+            <a:t>テスト計画書</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1984,27 +1944,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>第１．</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>版：20</a:t>
+            <a:t>第１．１版：20</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2065,6 +2005,46 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="2300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="2300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>中村大輝</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2396,7 +2376,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -2856,18 +2836,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -2875,13 +2855,13 @@
         <v>42849</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -2889,13 +2869,13 @@
         <v>42849</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="39">
         <v>3</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -2903,13 +2883,13 @@
         <v>42849</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="39">
         <v>3</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -2917,13 +2897,13 @@
         <v>42849</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="39">
         <v>3</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -2931,13 +2911,13 @@
         <v>42849</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="39">
         <v>3</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -2945,13 +2925,13 @@
         <v>42849</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="39">
         <v>3</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -2959,13 +2939,13 @@
         <v>42849</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="39">
         <v>3</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -2973,13 +2953,13 @@
         <v>42849</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="39">
         <v>3</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -2987,13 +2967,13 @@
         <v>42849</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="39">
         <v>3</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -3001,13 +2981,13 @@
         <v>42849</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="33">
         <v>4</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -3015,13 +2995,13 @@
         <v>42849</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="33">
         <v>4</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -3029,13 +3009,13 @@
         <v>42849</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="33">
         <v>4</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -3043,13 +3023,13 @@
         <v>42849</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="33">
         <v>4</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
@@ -3057,13 +3037,13 @@
         <v>42849</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="33">
         <v>4</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
@@ -3652,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -3666,11 +3646,11 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>22</v>
+      <c r="B4" s="56" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
@@ -3681,9 +3661,9 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
@@ -3694,9 +3674,9 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -3707,9 +3687,9 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
@@ -3720,11 +3700,11 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>25</v>
+      <c r="B8" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
@@ -3735,9 +3715,9 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
@@ -3748,9 +3728,9 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
@@ -3761,11 +3741,11 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
@@ -3776,9 +3756,9 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
@@ -3789,9 +3769,9 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
@@ -3814,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>10</v>
@@ -3829,10 +3809,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
@@ -3844,22 +3824,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -3867,10 +3847,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
@@ -3882,10 +3862,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
@@ -3897,10 +3877,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="47"/>
@@ -3912,10 +3892,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="47"/>
@@ -3927,10 +3907,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="47"/>
@@ -3969,7 +3949,7 @@
   <dimension ref="B2:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B47" sqref="B47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3979,23 +3959,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="59"/>
+      <c r="B3" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="49">
         <v>1</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4003,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4011,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4019,233 +3999,233 @@
         <v>4</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="62"/>
+      <c r="B8" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="63"/>
     </row>
     <row r="9" spans="2:3" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="59"/>
+      <c r="B11" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="60"/>
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="59"/>
+      <c r="B12" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="60"/>
     </row>
     <row r="13" spans="2:3" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="59"/>
+      <c r="B15" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="59"/>
+      <c r="B16" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="60"/>
     </row>
     <row r="17" spans="2:3" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="59"/>
+      <c r="B19" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="60"/>
     </row>
     <row r="20" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="59"/>
+      <c r="B20" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="60"/>
     </row>
     <row r="21" spans="2:3" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="60"/>
     </row>
     <row r="24" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="59"/>
+      <c r="B24" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="60"/>
     </row>
     <row r="25" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="49" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="26" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="63"/>
+      <c r="B26" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="64"/>
     </row>
     <row r="27" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="59"/>
+      <c r="B27" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="60"/>
     </row>
     <row r="28" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="59"/>
+      <c r="B30" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="60"/>
     </row>
     <row r="31" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="59"/>
+      <c r="B33" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="60"/>
     </row>
     <row r="34" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="59"/>
+      <c r="B36" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="60"/>
     </row>
     <row r="37" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="59"/>
+      <c r="B39" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="60"/>
     </row>
     <row r="40" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="61"/>
+      <c r="B40" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="62"/>
     </row>
     <row r="41" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="59"/>
+      <c r="B43" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="60"/>
     </row>
     <row r="44" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="61"/>
+      <c r="B44" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="62"/>
     </row>
     <row r="45" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="59"/>
+      <c r="B47" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="60"/>
     </row>
     <row r="48" spans="2:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="61"/>
+      <c r="B48" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="62"/>
     </row>
     <row r="49" spans="2:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
